--- a/data/pheno/pheno_TL.xlsx
+++ b/data/pheno/pheno_TL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\ML\WineML\GrandCruClassifier\data\pheno\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\Projects\predicting_bordeaux_wine_prices\data\pheno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012DE172-2C15-4F63-9EE6-239E55A611F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288D533A-23BE-466B-B787-118A091DEFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,22 +537,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -581,7 +581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -607,7 +607,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1951</v>
       </c>
@@ -636,7 +636,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1952</v>
       </c>
@@ -662,7 +662,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1953</v>
       </c>
@@ -688,7 +688,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1954</v>
       </c>
@@ -717,7 +717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1955</v>
       </c>
@@ -743,7 +743,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1956</v>
       </c>
@@ -769,7 +769,7 @@
         <v>44492</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1957</v>
       </c>
@@ -795,7 +795,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1958</v>
       </c>
@@ -821,7 +821,7 @@
         <v>44490</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1959</v>
       </c>
@@ -847,7 +847,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1960</v>
       </c>
@@ -876,7 +876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1961</v>
       </c>
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1962</v>
       </c>
@@ -931,7 +931,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1963</v>
       </c>
@@ -960,7 +960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1964</v>
       </c>
@@ -989,7 +989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1965</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1966</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1967</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1968</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>44486</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1969</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1970</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1971</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1972</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1973</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1974</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1975</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1976</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>44470</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1977</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1978</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1979</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>44486</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1980</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1981</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1982</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1983</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>44486</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1984</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1985</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1986</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1987</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>44486</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1988</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1989</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1990</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1991</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1992</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1993</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1994</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1995</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>44472</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1996</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1997</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1998</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1999</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2000</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2001</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>44485</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2002</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2003</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2004</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2005</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2006</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2007</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2008</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2009</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2010</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2012</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2013</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2014</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2016</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2017</v>
       </c>
